--- a/MockData.xlsx
+++ b/MockData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Lewis\Software Systems Capstone CPSC-49200-003\Community Charity App\Capstone-Site\my-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Lewis\Software Systems Capstone CPSC-49200-003\Community Charity App\Capstone-Site\my-app\CapstoneSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04414F4E-5D45-40E5-973B-3AFF3D94721D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012378BF-84C4-4906-BAFD-876DC5A6E45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33660" yWindow="3285" windowWidth="28800" windowHeight="16605" activeTab="1" xr2:uid="{C9A4CAAC-B9BE-47E9-BACB-D510E8CF2234}"/>
+    <workbookView xWindow="-36090" yWindow="3210" windowWidth="73950" windowHeight="16605" activeTab="1" xr2:uid="{C9A4CAAC-B9BE-47E9-BACB-D510E8CF2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Charity" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="237">
   <si>
     <t>Charity Name</t>
   </si>
@@ -742,6 +742,12 @@
   </si>
   <si>
     <t>Woodland Interiors is an interior design business that offers creative and and stylish solutions to customers in the Romeoville and surrounding areas.</t>
+  </si>
+  <si>
+    <t>INSERT INTO businessuser (`id`,`email`,`businessName`,`password`,`city`,`state`,`zipCode`,`phone`,`description`,`address`,`createdAt`,`updatedAt`)</t>
+  </si>
+  <si>
+    <t>INSERT INTO 'businessuser' (`id`,`email`,`businessName`,`password`,`city`,`state`,`zipCode`,`phone`,`description`,`address`,`createdAt`,`updatedAt`) VALUES (DEFAULT,?,?,?,?,?,?,?,?,?,?,?);</t>
   </si>
 </sst>
 </file>
@@ -1133,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09298AC3-31E0-4098-A7A3-ABBE3F2445F3}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,390 +2169,532 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C79CEA9-0714-4CD5-9FEE-666E3E023C94}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I13"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="144.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5">
+        <v>60601</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="P2" t="str">
+        <f>_xlfn.CONCAT("(DEFAULT,'", $I2, "', '", $B2, "', '", $K2, "', '", $D2, "', '", $C2, "', '", $E2,, "', '", $F2, "', '", $G2, "', '", $H2, "', '", $A$26,"', '", $A$26, "'), ")</f>
+        <v xml:space="preserve">(DEFAULT,'atozinc@gmail.com', 'A to Z Inc.', 'Atoz123', 'Chicago', 'IL', '60601', '(312) 555-1234', 'A to Z Inc. is a local business that offers a variety of services including home improvement, landscaping, and cleaning.', '100 Main St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="5">
+        <v>60004</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P13" si="0">_xlfn.CONCAT("(DEFAULT,'", $I3, "', '", $B3, "', '", $K3, "', '", $D3, "', '", $C3, "', '", $E3,, "', '", $F3, "', '", $G3, "', '", $H3, "', '", $A$26,"', '", $A$26, "'), ")</f>
+        <v xml:space="preserve">(DEFAULT,'probuildersllc@gmail.com', 'Pro Builders LLC', 'Probuilders456', 'Arlington Heights', 'IL', '60004', '(773) 555-5678', 'Pro Builders LLC is a construction company that specializes in residential and commercial projects in the Arlington Heights area.', '200 State St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="5">
+        <v>60076</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'pamperedpawssalon@yahoo.com', 'Pampered Paws Salon', 'Pampered901', 'Skokie', 'IL', '60076', '(847) 555-9012', 'Pampered Paws Salon is a pet grooming business that provides quality services to pet owners in the Skokie community.', '300 Oak Ave', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="5">
+        <v>60540</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'vitalitynutrition@yahoo.com', 'Vitality Nutrition', 'Vitality234', 'Naperville', 'IL', '60540', '(312) 555-2345', 'Vitality Nutrition is a health food store that offers a wide selection of organic and natural products to the Naperville community.', '400 Elm St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="5">
+        <v>60201</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'dynamicdesignersinc@gmail.com', 'Dynamic Designers Inc.', 'Dynamic678', 'Evanston', 'IL', '60201', '(847) 555-6789', 'Dynamic Designers Inc. is a web design company that creates innovative and responsive websites for businesses in the Evanston area.', '500 Pine St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="5">
+        <v>60193</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'expresscleaners@gmail.com', 'Express Cleaners', 'Express345', 'Schaumburg', 'IL', '60193', '(224) 555-3456', 'Express Cleaners is a dry cleaning business that provides fast and reliable services to the Schaumburg community.', '600 Maple Rd', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="5">
+        <v>60016</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'goldcoastjewelry@yahoo.com', 'Gold Coast Jewelry', 'Gold789', 'Des Plaines', 'IL', '60016', '(312) 555-7890', 'Gold Coast Jewelry is a family-owned business that offers a wide selection of fine jewelry to customers in the Des Plaines area.', '700 Oak Ave', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="5">
+        <v>60301</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'urbanbikes@gmail.com', 'Urban Bikes', 'Urban567', 'Oak Park', 'IL', '60301', '(773) 555-5678', 'Urban Bikes is a bike shop that provides quality bikes and accessories to customers in the Oak Park community.', '800 State St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="5">
+        <v>60004</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'thelocalmarket@yahoo.com', 'The Local Market', 'Local901', 'Arlington Heights', 'IL', '60004', '(847) 555-9012', 'The Local Market is a grocery store that offers fresh and locally-sourced products to customers in the Arlington Heights area.', '900 Elm St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="E11" s="5">
+        <v>60601</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'theprintshop@yahoo.com', 'The Print Shop', 'Print234', 'Chicago', 'IL', '60601', '(312) 555-2345', 'The Print Shop is a printing business that offers a variety of services including business cards, flyers, and posters to customers in the Chicago community.', '1000 Main St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5">
-        <v>60601</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="D12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="5">
+        <v>60076</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'fusionfitness@yahoo.com', 'Fusion Fitness', 'Fusion678', 'Skokie', 'IL', '60076', '(847) 555-6789', 'Fusion Fitness is a gym that offers fitness classes and personal training services to customers in the Skokie area.', '1100 Pine St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="5">
-        <v>60004</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5">
-        <v>60076</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="5">
-        <v>60540</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="E13" s="5">
         <v>60201</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5">
-        <v>60193</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5">
-        <v>60016</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5">
-        <v>60301</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5">
-        <v>60004</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5">
-        <v>60601</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="5">
-        <v>60076</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="G13" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5">
-        <v>60201</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>234</v>
-      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'woodlandinteriors@gmail.com', 'Woodland Interiors', 'Woodland789', 'Evanston', 'IL', '60201', '(312) 555-7890', 'Woodland Interiors is an interior design business that offers creative and and stylish solutions to customers in the Romeoville and surrounding areas.', '1200 Oak Ave', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>_xlfn.CONCAT("VALUES (DEFAULT,'", $G2, "', '", $F2, "', '", "password", "', '", $I2, "', '", $O35, "', '", $Q35,, "', '", $D2, "', '", $C2, "', '", $A$26,"', '", $A$26, "');")</f>
+        <v>VALUES (DEFAULT,'A to Z Inc. is a local business that offers a variety of services including home improvement, landscaping, and cleaning.', '(312) 555-1234', 'password', 'atozinc@gmail.com', '', '', 'Chicago', 'IL', '2023-04-09 01:53:06', '2023-04-09 01:53:06');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>_xlfn.TEXTJOIN(" ",,P2:P20)</f>
+        <v xml:space="preserve">(DEFAULT,'atozinc@gmail.com', 'A to Z Inc.', 'Atoz123', 'Chicago', 'IL', '60601', '(312) 555-1234', 'A to Z Inc. is a local business that offers a variety of services including home improvement, landscaping, and cleaning.', '100 Main St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'probuildersllc@gmail.com', 'Pro Builders LLC', 'Probuilders456', 'Arlington Heights', 'IL', '60004', '(773) 555-5678', 'Pro Builders LLC is a construction company that specializes in residential and commercial projects in the Arlington Heights area.', '200 State St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'pamperedpawssalon@yahoo.com', 'Pampered Paws Salon', 'Pampered901', 'Skokie', 'IL', '60076', '(847) 555-9012', 'Pampered Paws Salon is a pet grooming business that provides quality services to pet owners in the Skokie community.', '300 Oak Ave', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'vitalitynutrition@yahoo.com', 'Vitality Nutrition', 'Vitality234', 'Naperville', 'IL', '60540', '(312) 555-2345', 'Vitality Nutrition is a health food store that offers a wide selection of organic and natural products to the Naperville community.', '400 Elm St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'dynamicdesignersinc@gmail.com', 'Dynamic Designers Inc.', 'Dynamic678', 'Evanston', 'IL', '60201', '(847) 555-6789', 'Dynamic Designers Inc. is a web design company that creates innovative and responsive websites for businesses in the Evanston area.', '500 Pine St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'expresscleaners@gmail.com', 'Express Cleaners', 'Express345', 'Schaumburg', 'IL', '60193', '(224) 555-3456', 'Express Cleaners is a dry cleaning business that provides fast and reliable services to the Schaumburg community.', '600 Maple Rd', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'goldcoastjewelry@yahoo.com', 'Gold Coast Jewelry', 'Gold789', 'Des Plaines', 'IL', '60016', '(312) 555-7890', 'Gold Coast Jewelry is a family-owned business that offers a wide selection of fine jewelry to customers in the Des Plaines area.', '700 Oak Ave', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'urbanbikes@gmail.com', 'Urban Bikes', 'Urban567', 'Oak Park', 'IL', '60301', '(773) 555-5678', 'Urban Bikes is a bike shop that provides quality bikes and accessories to customers in the Oak Park community.', '800 State St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'thelocalmarket@yahoo.com', 'The Local Market', 'Local901', 'Arlington Heights', 'IL', '60004', '(847) 555-9012', 'The Local Market is a grocery store that offers fresh and locally-sourced products to customers in the Arlington Heights area.', '900 Elm St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'theprintshop@yahoo.com', 'The Print Shop', 'Print234', 'Chicago', 'IL', '60601', '(312) 555-2345', 'The Print Shop is a printing business that offers a variety of services including business cards, flyers, and posters to customers in the Chicago community.', '1000 Main St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'fusionfitness@yahoo.com', 'Fusion Fitness', 'Fusion678', 'Skokie', 'IL', '60076', '(847) 555-6789', 'Fusion Fitness is a gym that offers fitness classes and personal training services to customers in the Skokie area.', '1100 Pine St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'woodlandinteriors@gmail.com', 'Woodland Interiors', 'Woodland789', 'Evanston', 'IL', '60201', '(312) 555-7890', 'Woodland Interiors is an interior design business that offers creative and and stylish solutions to customers in the Romeoville and surrounding areas.', '1200 Oak Ave', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f>_xlfn.CONCAT(A27, " VALUES ", LEFT(A32, LEN(A32)-2),";")</f>
+        <v>INSERT INTO businessuser (`id`,`email`,`businessName`,`password`,`city`,`state`,`zipCode`,`phone`,`description`,`address`,`createdAt`,`updatedAt`) VALUES (DEFAULT,'atozinc@gmail.com', 'A to Z Inc.', 'Atoz123', 'Chicago', 'IL', '60601', '(312) 555-1234', 'A to Z Inc. is a local business that offers a variety of services including home improvement, landscaping, and cleaning.', '100 Main St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'probuildersllc@gmail.com', 'Pro Builders LLC', 'Probuilders456', 'Arlington Heights', 'IL', '60004', '(773) 555-5678', 'Pro Builders LLC is a construction company that specializes in residential and commercial projects in the Arlington Heights area.', '200 State St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'pamperedpawssalon@yahoo.com', 'Pampered Paws Salon', 'Pampered901', 'Skokie', 'IL', '60076', '(847) 555-9012', 'Pampered Paws Salon is a pet grooming business that provides quality services to pet owners in the Skokie community.', '300 Oak Ave', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'vitalitynutrition@yahoo.com', 'Vitality Nutrition', 'Vitality234', 'Naperville', 'IL', '60540', '(312) 555-2345', 'Vitality Nutrition is a health food store that offers a wide selection of organic and natural products to the Naperville community.', '400 Elm St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'dynamicdesignersinc@gmail.com', 'Dynamic Designers Inc.', 'Dynamic678', 'Evanston', 'IL', '60201', '(847) 555-6789', 'Dynamic Designers Inc. is a web design company that creates innovative and responsive websites for businesses in the Evanston area.', '500 Pine St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'expresscleaners@gmail.com', 'Express Cleaners', 'Express345', 'Schaumburg', 'IL', '60193', '(224) 555-3456', 'Express Cleaners is a dry cleaning business that provides fast and reliable services to the Schaumburg community.', '600 Maple Rd', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'goldcoastjewelry@yahoo.com', 'Gold Coast Jewelry', 'Gold789', 'Des Plaines', 'IL', '60016', '(312) 555-7890', 'Gold Coast Jewelry is a family-owned business that offers a wide selection of fine jewelry to customers in the Des Plaines area.', '700 Oak Ave', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'urbanbikes@gmail.com', 'Urban Bikes', 'Urban567', 'Oak Park', 'IL', '60301', '(773) 555-5678', 'Urban Bikes is a bike shop that provides quality bikes and accessories to customers in the Oak Park community.', '800 State St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'thelocalmarket@yahoo.com', 'The Local Market', 'Local901', 'Arlington Heights', 'IL', '60004', '(847) 555-9012', 'The Local Market is a grocery store that offers fresh and locally-sourced products to customers in the Arlington Heights area.', '900 Elm St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'theprintshop@yahoo.com', 'The Print Shop', 'Print234', 'Chicago', 'IL', '60601', '(312) 555-2345', 'The Print Shop is a printing business that offers a variety of services including business cards, flyers, and posters to customers in the Chicago community.', '1000 Main St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'fusionfitness@yahoo.com', 'Fusion Fitness', 'Fusion678', 'Skokie', 'IL', '60076', '(847) 555-6789', 'Fusion Fitness is a gym that offers fitness classes and personal training services to customers in the Skokie area.', '1100 Pine St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'woodlandinteriors@gmail.com', 'Woodland Interiors', 'Woodland789', 'Evanston', 'IL', '60201', '(312) 555-7890', 'Woodland Interiors is an interior design business that offers creative and and stylish solutions to customers in the Romeoville and surrounding areas.', '1200 Oak Ave', '2023-04-09 01:53:06', '2023-04-09 01:53:06');</v>
+      </c>
+      <c r="O34" s="5"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O35" s="5"/>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O36" s="5"/>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O37" s="5"/>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O38" s="5"/>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O39" s="5"/>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O40" s="5"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O41" s="5"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O42" s="5"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O43" s="5"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O44" s="5"/>
+      <c r="Q44" s="5"/>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O45" s="5"/>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O46" s="5"/>
+      <c r="Q46" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MockData.xlsx
+++ b/MockData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Lewis\Software Systems Capstone CPSC-49200-003\Community Charity App\Capstone-Site\my-app\CapstoneSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012378BF-84C4-4906-BAFD-876DC5A6E45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FCA0B2-0E1F-455F-8B11-1EBBD558D373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36090" yWindow="3210" windowWidth="73950" windowHeight="16605" activeTab="1" xr2:uid="{C9A4CAAC-B9BE-47E9-BACB-D510E8CF2234}"/>
+    <workbookView xWindow="-36090" yWindow="3210" windowWidth="27030" windowHeight="16605" activeTab="2" xr2:uid="{C9A4CAAC-B9BE-47E9-BACB-D510E8CF2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Charity" sheetId="1" r:id="rId1"/>
     <sheet name="Business" sheetId="2" r:id="rId2"/>
+    <sheet name="Event" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="265">
   <si>
     <t>Charity Name</t>
   </si>
@@ -748,6 +749,90 @@
   </si>
   <si>
     <t>INSERT INTO 'businessuser' (`id`,`email`,`businessName`,`password`,`city`,`state`,`zipCode`,`phone`,`description`,`address`,`createdAt`,`updatedAt`) VALUES (DEFAULT,?,?,?,?,?,?,?,?,?,?,?);</t>
+  </si>
+  <si>
+    <t>Charity/Business Name</t>
+  </si>
+  <si>
+    <t>Event Name</t>
+  </si>
+  <si>
+    <t>Event Description</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Griggsville Food Drive</t>
+  </si>
+  <si>
+    <t>Come to Griggsville United Methodist Church and donate canned foods and clothing for local communities.</t>
+  </si>
+  <si>
+    <t>Park City Clothing Drive</t>
+  </si>
+  <si>
+    <t>We are organizing a food drive on June 25th. Please come out for music and dancing. Bring any clothes you'd like to donate.</t>
+  </si>
+  <si>
+    <t>Heather's House</t>
+  </si>
+  <si>
+    <t>Heather's House Fundraiser</t>
+  </si>
+  <si>
+    <t>Heather's House is welcoming everyone in the communtiy to come out and join us for a fundraiser. Proceeds will go to local charities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montgomery </t>
+  </si>
+  <si>
+    <t>Cemetary Preservation Group Inc.</t>
+  </si>
+  <si>
+    <t>CPG Fundraiser</t>
+  </si>
+  <si>
+    <t>Cemetary Preservation Group Inc. is holding an annual fundraiser on July 3rd.</t>
+  </si>
+  <si>
+    <t>Quincy University Fundraiser</t>
+  </si>
+  <si>
+    <t>Quincy University is hosting a fundraiser for our students in need.</t>
+  </si>
+  <si>
+    <t>LM Food Drive</t>
+  </si>
+  <si>
+    <t>The Local Market is hosting a quarterly food drive for local churches. All donated food will go to local churches that are helping those in need.</t>
+  </si>
+  <si>
+    <t>The Print Shop Clothing Drive</t>
+  </si>
+  <si>
+    <t>The Print Shop welcomes everyone for its' annual clothing drive, please bring any article of clothing you would like to donate.</t>
+  </si>
+  <si>
+    <t>Fusion Fitness's Food Drive</t>
+  </si>
+  <si>
+    <t>Fusion Fitness welcomes everyone for its' annual food drive, please bring any article of food you would like to donate.</t>
+  </si>
+  <si>
+    <t>Woodland Interiors Fundraiser</t>
+  </si>
+  <si>
+    <t>Woodland Interiors is hosting its quarterly fundraiser for local schools. All donated proceeds will go to oodlandlpings in need.</t>
+  </si>
+  <si>
+    <t>Vitality Nutrition Food Drive</t>
+  </si>
+  <si>
+    <t>Vitality Nutrition welcomes everyone for its' annual food drive, please bring any article of food you would like to donate.</t>
   </si>
 </sst>
 </file>
@@ -812,7 +897,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -821,6 +906,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -2171,7 +2257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C79CEA9-0714-4CD5-9FEE-666E3E023C94}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -2699,4 +2785,289 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078DD25C-182C-47E1-B2C2-C3B073F69B47}">
+  <dimension ref="A1:H1048576"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="115.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45097</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>62340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>61115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45107</v>
+      </c>
+      <c r="F4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4">
+        <v>36110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5">
+        <v>36701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>62301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45119</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5">
+        <v>60004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45122</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5">
+        <v>60601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45127</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5">
+        <v>60076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45129</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5">
+        <v>60201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45148</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5">
+        <v>60540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="1048576" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048576" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MockData.xlsx
+++ b/MockData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Lewis\Software Systems Capstone CPSC-49200-003\Community Charity App\Capstone-Site\my-app\CapstoneSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FCA0B2-0E1F-455F-8B11-1EBBD558D373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B994214C-6630-4D8D-B95D-3F4AF567385D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36090" yWindow="3210" windowWidth="27030" windowHeight="16605" activeTab="2" xr2:uid="{C9A4CAAC-B9BE-47E9-BACB-D510E8CF2234}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C9A4CAAC-B9BE-47E9-BACB-D510E8CF2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Charity" sheetId="1" r:id="rId1"/>
@@ -897,7 +897,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -907,6 +907,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1225,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09298AC3-31E0-4098-A7A3-ABBE3F2445F3}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2727,7 +2728,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
+      <c r="A34" s="7" t="str">
         <f>_xlfn.CONCAT(A27, " VALUES ", LEFT(A32, LEN(A32)-2),";")</f>
         <v>INSERT INTO businessuser (`id`,`email`,`businessName`,`password`,`city`,`state`,`zipCode`,`phone`,`description`,`address`,`createdAt`,`updatedAt`) VALUES (DEFAULT,'atozinc@gmail.com', 'A to Z Inc.', 'Atoz123', 'Chicago', 'IL', '60601', '(312) 555-1234', 'A to Z Inc. is a local business that offers a variety of services including home improvement, landscaping, and cleaning.', '100 Main St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'probuildersllc@gmail.com', 'Pro Builders LLC', 'Probuilders456', 'Arlington Heights', 'IL', '60004', '(773) 555-5678', 'Pro Builders LLC is a construction company that specializes in residential and commercial projects in the Arlington Heights area.', '200 State St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'pamperedpawssalon@yahoo.com', 'Pampered Paws Salon', 'Pampered901', 'Skokie', 'IL', '60076', '(847) 555-9012', 'Pampered Paws Salon is a pet grooming business that provides quality services to pet owners in the Skokie community.', '300 Oak Ave', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'vitalitynutrition@yahoo.com', 'Vitality Nutrition', 'Vitality234', 'Naperville', 'IL', '60540', '(312) 555-2345', 'Vitality Nutrition is a health food store that offers a wide selection of organic and natural products to the Naperville community.', '400 Elm St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'dynamicdesignersinc@gmail.com', 'Dynamic Designers Inc.', 'Dynamic678', 'Evanston', 'IL', '60201', '(847) 555-6789', 'Dynamic Designers Inc. is a web design company that creates innovative and responsive websites for businesses in the Evanston area.', '500 Pine St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'expresscleaners@gmail.com', 'Express Cleaners', 'Express345', 'Schaumburg', 'IL', '60193', '(224) 555-3456', 'Express Cleaners is a dry cleaning business that provides fast and reliable services to the Schaumburg community.', '600 Maple Rd', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'goldcoastjewelry@yahoo.com', 'Gold Coast Jewelry', 'Gold789', 'Des Plaines', 'IL', '60016', '(312) 555-7890', 'Gold Coast Jewelry is a family-owned business that offers a wide selection of fine jewelry to customers in the Des Plaines area.', '700 Oak Ave', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'urbanbikes@gmail.com', 'Urban Bikes', 'Urban567', 'Oak Park', 'IL', '60301', '(773) 555-5678', 'Urban Bikes is a bike shop that provides quality bikes and accessories to customers in the Oak Park community.', '800 State St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'thelocalmarket@yahoo.com', 'The Local Market', 'Local901', 'Arlington Heights', 'IL', '60004', '(847) 555-9012', 'The Local Market is a grocery store that offers fresh and locally-sourced products to customers in the Arlington Heights area.', '900 Elm St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'theprintshop@yahoo.com', 'The Print Shop', 'Print234', 'Chicago', 'IL', '60601', '(312) 555-2345', 'The Print Shop is a printing business that offers a variety of services including business cards, flyers, and posters to customers in the Chicago community.', '1000 Main St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'fusionfitness@yahoo.com', 'Fusion Fitness', 'Fusion678', 'Skokie', 'IL', '60076', '(847) 555-6789', 'Fusion Fitness is a gym that offers fitness classes and personal training services to customers in the Skokie area.', '1100 Pine St', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'woodlandinteriors@gmail.com', 'Woodland Interiors', 'Woodland789', 'Evanston', 'IL', '60201', '(312) 555-7890', 'Woodland Interiors is an interior design business that offers creative and and stylish solutions to customers in the Romeoville and surrounding areas.', '1200 Oak Ave', '2023-04-09 01:53:06', '2023-04-09 01:53:06');</v>
       </c>
@@ -2791,7 +2792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078DD25C-182C-47E1-B2C2-C3B073F69B47}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/MockData.xlsx
+++ b/MockData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Lewis\Software Systems Capstone CPSC-49200-003\Community Charity App\Capstone-Site\my-app\CapstoneSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B994214C-6630-4D8D-B95D-3F4AF567385D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562CA19D-5A66-4B46-9DD8-28CD244B1E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C9A4CAAC-B9BE-47E9-BACB-D510E8CF2234}"/>
+    <workbookView xWindow="-33750" yWindow="2280" windowWidth="31410" windowHeight="16605" activeTab="2" xr2:uid="{C9A4CAAC-B9BE-47E9-BACB-D510E8CF2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Charity" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="264">
   <si>
     <t>Charity Name</t>
   </si>
@@ -751,9 +751,6 @@
     <t>INSERT INTO 'businessuser' (`id`,`email`,`businessName`,`password`,`city`,`state`,`zipCode`,`phone`,`description`,`address`,`createdAt`,`updatedAt`) VALUES (DEFAULT,?,?,?,?,?,?,?,?,?,?,?);</t>
   </si>
   <si>
-    <t>Charity/Business Name</t>
-  </si>
-  <si>
     <t>Event Name</t>
   </si>
   <si>
@@ -763,9 +760,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Griggsville Food Drive</t>
   </si>
   <si>
@@ -775,24 +769,9 @@
     <t>Park City Clothing Drive</t>
   </si>
   <si>
-    <t>We are organizing a food drive on June 25th. Please come out for music and dancing. Bring any clothes you'd like to donate.</t>
-  </si>
-  <si>
-    <t>Heather's House</t>
-  </si>
-  <si>
-    <t>Heather's House Fundraiser</t>
-  </si>
-  <si>
-    <t>Heather's House is welcoming everyone in the communtiy to come out and join us for a fundraiser. Proceeds will go to local charities.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Montgomery </t>
   </si>
   <si>
-    <t>Cemetary Preservation Group Inc.</t>
-  </si>
-  <si>
     <t>CPG Fundraiser</t>
   </si>
   <si>
@@ -814,15 +793,6 @@
     <t>The Print Shop Clothing Drive</t>
   </si>
   <si>
-    <t>The Print Shop welcomes everyone for its' annual clothing drive, please bring any article of clothing you would like to donate.</t>
-  </si>
-  <si>
-    <t>Fusion Fitness's Food Drive</t>
-  </si>
-  <si>
-    <t>Fusion Fitness welcomes everyone for its' annual food drive, please bring any article of food you would like to donate.</t>
-  </si>
-  <si>
     <t>Woodland Interiors Fundraiser</t>
   </si>
   <si>
@@ -832,7 +802,34 @@
     <t>Vitality Nutrition Food Drive</t>
   </si>
   <si>
-    <t>Vitality Nutrition welcomes everyone for its' annual food drive, please bring any article of food you would like to donate.</t>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>INSERT INTO `event` (`id`,`eventName`,`address`,`city`,`state`,`zipCode`,`description`,`eventDateTime`,`createdAt`,`updatedAt`) VALUES (DEFAULT,?,?,?,?,?,?,?,?,?);</t>
+  </si>
+  <si>
+    <t>INSERT INTO `event` (`id`,`eventName`,`address`,`city`,`state`,`zipCode`,`description`,`eventDateTime`,`createdAt`,`updatedAt`)</t>
+  </si>
+  <si>
+    <t>Heather''s House Fundraiser</t>
+  </si>
+  <si>
+    <t>Heather''s House is welcoming everyone in the communtiy to come out and join us for a fundraiser. Proceeds will go to local charities.</t>
+  </si>
+  <si>
+    <t>The Print Shop welcomes everyone for its'' annual clothing drive, please bring any article of clothing you would like to donate.</t>
+  </si>
+  <si>
+    <t>We are organizing a food drive on June 25th. Please come out for music and dancing. Bring any clothes you''d like to donate.</t>
+  </si>
+  <si>
+    <t>Fusion Fitness welcomes everyone for its'' annual food drive, please bring any article of food you would like to donate.</t>
+  </si>
+  <si>
+    <t>Fusion Fitness''s Food Drive</t>
+  </si>
+  <si>
+    <t>Vitality Nutrition welcomes everyone for its'' annual food drive, please bring any article of food you would like to donate.</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09298AC3-31E0-4098-A7A3-ABBE3F2445F3}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,7 +2256,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2696,7 +2693,7 @@
         <v>233</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("(DEFAULT,'", $I13, "', '", $B13, "', '", $K13, "', '", $D13, "', '", $C13, "', '", $E13,, "', '", $F13, "', '", $G13, "', '", $H13, "', '", $A$26,"', '", $A$26, "'), ")</f>
         <v xml:space="preserve">(DEFAULT,'woodlandinteriors@gmail.com', 'Woodland Interiors', 'Woodland789', 'Evanston', 'IL', '60201', '(312) 555-7890', 'Woodland Interiors is an interior design business that offers creative and and stylish solutions to customers in the Romeoville and surrounding areas.', '1200 Oak Ave', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
       </c>
     </row>
@@ -2790,22 +2787,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078DD25C-182C-47E1-B2C2-C3B073F69B47}">
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="115.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="115.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>237</v>
       </c>
@@ -2816,10 +2813,10 @@
         <v>239</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -2831,18 +2828,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="6">
+        <v>241</v>
+      </c>
+      <c r="C2" s="6">
         <v>45097</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2853,19 +2853,26 @@
       <c r="H2">
         <v>62340</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT("(DEFAULT,'", $A2, "', '", $E2, "', '",  $F2, "', '", $G2, "', '", $H2, "', '", $B2, "', '", $D2, "', '", $A$26,"', '", $A$26, "'), ")</f>
+        <v xml:space="preserve">(DEFAULT,'Griggsville Food Drive', '100 Main St', 'Griggsville', 'IL', '62340', 'Come to Griggsville United Methodist Church and donate canned foods and clothing for local communities.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="6">
+        <v>260</v>
+      </c>
+      <c r="C3" s="6">
         <v>45102</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -2876,22 +2883,29 @@
       <c r="H3">
         <v>61115</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J11" si="0">_xlfn.CONCAT("(DEFAULT,'", $A3, "', '", $E3, "', '",  $F3, "', '", $G3, "', '", $H3, "', '", $B3, "', '", $D3, "', '", $A$26,"', '", $A$26, "'), ")</f>
+        <v xml:space="preserve">(DEFAULT,'Park City Clothing Drive', '200 State St', 'Machesney Park', 'IL', '61115', 'We are organizing a food drive on June 25th. Please come out for music and dancing. Bring any clothes you''d like to donate.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="6">
+        <v>258</v>
+      </c>
+      <c r="C4" s="6">
         <v>45107</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="F4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G4" t="s">
         <v>54</v>
@@ -2899,19 +2913,26 @@
       <c r="H4">
         <v>36110</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'Heather''s House Fundraiser', '300 Oak Ave', 'Montgomery ', 'AL', '36110', 'Heather''s House is welcoming everyone in the communtiy to come out and join us for a fundraiser. Proceeds will go to local charities.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="6">
+        <v>245</v>
+      </c>
+      <c r="C5" s="6">
         <v>45110</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="F5" t="s">
         <v>63</v>
@@ -2922,19 +2943,26 @@
       <c r="H5">
         <v>36701</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'CPG Fundraiser', '700 Oak Ave', 'Selma', 'AL', '36701', 'Cemetary Preservation Group Inc. is holding an annual fundraiser on July 3rd.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D6" s="6">
+        <v>247</v>
+      </c>
+      <c r="C6" s="6">
         <v>45115</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -2945,19 +2973,26 @@
       <c r="H6">
         <v>62301</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>215</v>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'Quincy University Fundraiser', '500 Pine St', 'Quincy', 'IL', '62301', 'Quincy University is hosting a fundraiser for our students in need.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="6">
+        <v>249</v>
+      </c>
+      <c r="C7" s="6">
         <v>45119</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>172</v>
@@ -2968,19 +3003,26 @@
       <c r="H7" s="5">
         <v>60004</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>220</v>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'LM Food Drive', '600 Maple Rd', 'Arlington Heights', 'IL', '60004', 'The Local Market is hosting a quarterly food drive for local churches. All donated food will go to local churches that are helping those in need.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>250</v>
       </c>
       <c r="B8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="6">
+        <v>259</v>
+      </c>
+      <c r="C8" s="6">
         <v>45122</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>13</v>
@@ -2991,19 +3033,26 @@
       <c r="H8" s="5">
         <v>60601</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>225</v>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'The Print Shop Clothing Drive', '700 Oak Ave', 'Chicago', 'IL', '60601', 'The Print Shop welcomes everyone for its'' annual clothing drive, please bring any article of clothing you would like to donate.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D9" s="6">
+        <v>261</v>
+      </c>
+      <c r="C9" s="6">
         <v>45127</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>179</v>
@@ -3014,19 +3063,26 @@
       <c r="H9" s="5">
         <v>60076</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>230</v>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'Fusion Fitness''s Food Drive', '200 State St', 'Skokie', 'IL', '60076', 'Fusion Fitness welcomes everyone for its'' annual food drive, please bring any article of food you would like to donate.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>251</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D10" s="6">
+        <v>252</v>
+      </c>
+      <c r="C10" s="6">
         <v>45129</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>193</v>
@@ -3037,19 +3093,26 @@
       <c r="H10" s="5">
         <v>60201</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>181</v>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'Woodland Interiors Fundraiser', '400 Elm St', 'Evanston', 'IL', '60201', 'Woodland Interiors is hosting its quarterly fundraiser for local schools. All donated proceeds will go to oodlandlpings in need.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>253</v>
       </c>
       <c r="B11" t="s">
         <v>263</v>
       </c>
-      <c r="C11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="6">
         <v>45148</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>186</v>
@@ -3060,15 +3123,52 @@
       <c r="H11" s="5">
         <v>60540</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="6"/>
-    </row>
-    <row r="1048576" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1048576" s="6"/>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(DEFAULT,'Vitality Nutrition Food Drive', '500 Pine St', 'Naperville', 'IL', '60540', 'Vitality Nutrition welcomes everyone for its'' annual food drive, please bring any article of food you would like to donate.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>_xlfn.CONCAT("VALUES (DEFAULT,'", $A2, "', '", $E2, "', '",  $F2, "', '", $G2, "', '", $H2, "', '", $B2, "', '", $D2, "', '", $A$26,"', '", $A$26, "');")</f>
+        <v>VALUES (DEFAULT,'Griggsville Food Drive', '100 Main St', 'Griggsville', 'IL', '62340', 'Come to Griggsville United Methodist Church and donate canned foods and clothing for local communities.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>_xlfn.TEXTJOIN(" ",,J2:J11)</f>
+        <v xml:space="preserve">(DEFAULT,'Griggsville Food Drive', '100 Main St', 'Griggsville', 'IL', '62340', 'Come to Griggsville United Methodist Church and donate canned foods and clothing for local communities.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'Park City Clothing Drive', '200 State St', 'Machesney Park', 'IL', '61115', 'We are organizing a food drive on June 25th. Please come out for music and dancing. Bring any clothes you''d like to donate.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'Heather''s House Fundraiser', '300 Oak Ave', 'Montgomery ', 'AL', '36110', 'Heather''s House is welcoming everyone in the communtiy to come out and join us for a fundraiser. Proceeds will go to local charities.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'CPG Fundraiser', '700 Oak Ave', 'Selma', 'AL', '36701', 'Cemetary Preservation Group Inc. is holding an annual fundraiser on July 3rd.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'Quincy University Fundraiser', '500 Pine St', 'Quincy', 'IL', '62301', 'Quincy University is hosting a fundraiser for our students in need.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'LM Food Drive', '600 Maple Rd', 'Arlington Heights', 'IL', '60004', 'The Local Market is hosting a quarterly food drive for local churches. All donated food will go to local churches that are helping those in need.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'The Print Shop Clothing Drive', '700 Oak Ave', 'Chicago', 'IL', '60601', 'The Print Shop welcomes everyone for its'' annual clothing drive, please bring any article of clothing you would like to donate.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'Fusion Fitness''s Food Drive', '200 State St', 'Skokie', 'IL', '60076', 'Fusion Fitness welcomes everyone for its'' annual food drive, please bring any article of food you would like to donate.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'Woodland Interiors Fundraiser', '400 Elm St', 'Evanston', 'IL', '60201', 'Woodland Interiors is hosting its quarterly fundraiser for local schools. All donated proceeds will go to oodlandlpings in need.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'Vitality Nutrition Food Drive', '500 Pine St', 'Naperville', 'IL', '60540', 'Vitality Nutrition welcomes everyone for its'' annual food drive, please bring any article of food you would like to donate.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'), </v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f>_xlfn.CONCAT(A27, " VALUES ", LEFT(A32, LEN(A32)-2),";")</f>
+        <v>INSERT INTO `event` (`id`,`eventName`,`address`,`city`,`state`,`zipCode`,`description`,`eventDateTime`,`createdAt`,`updatedAt`) VALUES (DEFAULT,'Griggsville Food Drive', '100 Main St', 'Griggsville', 'IL', '62340', 'Come to Griggsville United Methodist Church and donate canned foods and clothing for local communities.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'Park City Clothing Drive', '200 State St', 'Machesney Park', 'IL', '61115', 'We are organizing a food drive on June 25th. Please come out for music and dancing. Bring any clothes you''d like to donate.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'Heather''s House Fundraiser', '300 Oak Ave', 'Montgomery ', 'AL', '36110', 'Heather''s House is welcoming everyone in the communtiy to come out and join us for a fundraiser. Proceeds will go to local charities.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'CPG Fundraiser', '700 Oak Ave', 'Selma', 'AL', '36701', 'Cemetary Preservation Group Inc. is holding an annual fundraiser on July 3rd.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'Quincy University Fundraiser', '500 Pine St', 'Quincy', 'IL', '62301', 'Quincy University is hosting a fundraiser for our students in need.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'LM Food Drive', '600 Maple Rd', 'Arlington Heights', 'IL', '60004', 'The Local Market is hosting a quarterly food drive for local churches. All donated food will go to local churches that are helping those in need.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'The Print Shop Clothing Drive', '700 Oak Ave', 'Chicago', 'IL', '60601', 'The Print Shop welcomes everyone for its'' annual clothing drive, please bring any article of clothing you would like to donate.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'Fusion Fitness''s Food Drive', '200 State St', 'Skokie', 'IL', '60076', 'Fusion Fitness welcomes everyone for its'' annual food drive, please bring any article of food you would like to donate.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'Woodland Interiors Fundraiser', '400 Elm St', 'Evanston', 'IL', '60201', 'Woodland Interiors is hosting its quarterly fundraiser for local schools. All donated proceeds will go to oodlandlpings in need.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06'),  (DEFAULT,'Vitality Nutrition Food Drive', '500 Pine St', 'Naperville', 'IL', '60540', 'Vitality Nutrition welcomes everyone for its'' annual food drive, please bring any article of food you would like to donate.', '2023-04-09 01:53:06', '2023-04-09 01:53:06', '2023-04-09 01:53:06');</v>
+      </c>
+    </row>
+    <row r="1048576" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1048576" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
